--- a/graphs/sonar_non-pretensionata_dinamico.xlsx
+++ b/graphs/sonar_non-pretensionata_dinamico.xlsx
@@ -455,13 +455,13 @@
         <v>0.4301648865784497</v>
       </c>
       <c r="C2" t="n">
-        <v>43.61</v>
+        <v>1721.653791726028</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001186225513066251</v>
+        <v>0.3668478529267383</v>
       </c>
       <c r="E2" t="n">
-        <v>3.749535216121495</v>
+        <v>1159.563705625653</v>
       </c>
     </row>
     <row r="3">
@@ -472,13 +472,13 @@
         <v>0.6774204475308639</v>
       </c>
       <c r="C3" t="n">
-        <v>63.15</v>
+        <v>2493.062071715172</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001954872071379729</v>
+        <v>0.6571974450906863</v>
       </c>
       <c r="E3" t="n">
-        <v>6.179132993112184</v>
+        <v>2077.325241671097</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         <v>0.9246024414062501</v>
       </c>
       <c r="C4" t="n">
-        <v>82.78</v>
+        <v>3268.023409288708</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002032465061929111</v>
+        <v>0.9549276024599289</v>
       </c>
       <c r="E4" t="n">
-        <v>6.424395168167501</v>
+        <v>3018.415892156498</v>
       </c>
     </row>
     <row r="5">
@@ -506,13 +506,13 @@
         <v>1.171033163265306</v>
       </c>
       <c r="C5" t="n">
-        <v>102.64</v>
+        <v>4052.064782911247</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002373446841779162</v>
+        <v>1.299146985731944</v>
       </c>
       <c r="E5" t="n">
-        <v>7.502198085218483</v>
+        <v>4106.453617917246</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
         <v>1.4188474852071</v>
       </c>
       <c r="C6" t="n">
-        <v>122.77</v>
+        <v>4846.765329286962</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004875023777383118</v>
+        <v>1.638351812457543</v>
       </c>
       <c r="E6" t="n">
-        <v>15.40939051801672</v>
+        <v>5178.640909434644</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/sonar_non-pretensionata_dinamico.xlsx
+++ b/graphs/sonar_non-pretensionata_dinamico.xlsx
@@ -455,13 +455,13 @@
         <v>0.4301648865784497</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.653791726028</v>
+        <v>1.721653791726028</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3668478529267383</v>
+        <v>0.0003668478529267382</v>
       </c>
       <c r="E2" t="n">
-        <v>1159.563705625653</v>
+        <v>0.001159606824447104</v>
       </c>
     </row>
     <row r="3">
@@ -472,13 +472,13 @@
         <v>0.6774204475308639</v>
       </c>
       <c r="C3" t="n">
-        <v>2493.062071715172</v>
+        <v>2.493062071715172</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6571974450906863</v>
+        <v>0.0006571974450906863</v>
       </c>
       <c r="E3" t="n">
-        <v>2077.325241671097</v>
+        <v>0.002077349310920983</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         <v>0.9246024414062501</v>
       </c>
       <c r="C4" t="n">
-        <v>3268.023409288708</v>
+        <v>3.268023409288708</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9549276024599289</v>
+        <v>0.0009549276024599289</v>
       </c>
       <c r="E4" t="n">
-        <v>3018.415892156498</v>
+        <v>0.003018432457074848</v>
       </c>
     </row>
     <row r="5">
@@ -506,13 +506,13 @@
         <v>1.171033163265306</v>
       </c>
       <c r="C5" t="n">
-        <v>4052.064782911247</v>
+        <v>4.052064782911247</v>
       </c>
       <c r="D5" t="n">
-        <v>1.299146985731944</v>
+        <v>0.001299146985731943</v>
       </c>
       <c r="E5" t="n">
-        <v>4106.453617917246</v>
+        <v>0.004106465793843366</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
         <v>1.4188474852071</v>
       </c>
       <c r="C6" t="n">
-        <v>4846.765329286962</v>
+        <v>4.846765329286962</v>
       </c>
       <c r="D6" t="n">
-        <v>1.638351812457543</v>
+        <v>0.001638351812457543</v>
       </c>
       <c r="E6" t="n">
-        <v>5178.640909434644</v>
+        <v>0.005178650564458862</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/sonar_non-pretensionata_dinamico.xlsx
+++ b/graphs/sonar_non-pretensionata_dinamico.xlsx
@@ -458,10 +458,10 @@
         <v>1.721653791726028</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0003668478529267382</v>
+        <v>0.005</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001159606824447104</v>
+        <v>0.01580442584641887</v>
       </c>
     </row>
     <row r="3">
@@ -475,10 +475,10 @@
         <v>2.493062071715172</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0006571974450906863</v>
+        <v>0.005</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002077349310920983</v>
+        <v>0.01580442584641887</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         <v>3.268023409288708</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0009549276024599289</v>
+        <v>0.005</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003018432457074848</v>
+        <v>0.01580442584641887</v>
       </c>
     </row>
     <row r="5">
@@ -509,10 +509,10 @@
         <v>4.052064782911247</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001299146985731943</v>
+        <v>0.005</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004106465793843366</v>
+        <v>0.01580442584641887</v>
       </c>
     </row>
     <row r="6">
@@ -526,10 +526,10 @@
         <v>4.846765329286962</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001638351812457543</v>
+        <v>0.005</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005178650564458862</v>
+        <v>0.01580442584641887</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/sonar_non-pretensionata_dinamico.xlsx
+++ b/graphs/sonar_non-pretensionata_dinamico.xlsx
@@ -461,7 +461,7 @@
         <v>0.005</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01580442584641887</v>
+        <v>0.01580935263951713</v>
       </c>
     </row>
     <row r="3">
@@ -478,7 +478,7 @@
         <v>0.005</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01580442584641887</v>
+        <v>0.01580935263951713</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +495,7 @@
         <v>0.005</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01580442584641887</v>
+        <v>0.01580935263951713</v>
       </c>
     </row>
     <row r="5">
@@ -512,7 +512,7 @@
         <v>0.005</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01580442584641887</v>
+        <v>0.01580935263951713</v>
       </c>
     </row>
     <row r="6">
@@ -529,7 +529,7 @@
         <v>0.005</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01580442584641887</v>
+        <v>0.01580935263951713</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/sonar_non-pretensionata_dinamico.xlsx
+++ b/graphs/sonar_non-pretensionata_dinamico.xlsx
@@ -458,10 +458,10 @@
         <v>1.721653791726028</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005</v>
+        <v>0.01311739130434782</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01580935263951713</v>
+        <v>0.04146443875241895</v>
       </c>
     </row>
     <row r="3">
@@ -475,10 +475,10 @@
         <v>2.493062071715172</v>
       </c>
       <c r="D3" t="n">
-        <v>0.005</v>
+        <v>0.01646111111111111</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01580935263951713</v>
+        <v>0.05203316923318606</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         <v>3.268023409288708</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005</v>
+        <v>0.01923125</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01580935263951713</v>
+        <v>0.06078904268663</v>
       </c>
     </row>
     <row r="5">
@@ -509,10 +509,10 @@
         <v>4.052064782911247</v>
       </c>
       <c r="D5" t="n">
-        <v>0.005</v>
+        <v>0.02164285714285714</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01580935263951713</v>
+        <v>0.06841171157166864</v>
       </c>
     </row>
     <row r="6">
@@ -526,10 +526,10 @@
         <v>4.846765329286962</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005</v>
+        <v>0.02382307692307692</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01580935263951713</v>
+        <v>0.07530303031539096</v>
       </c>
     </row>
   </sheetData>
